--- a/powerapp/data/emls_assignment.xlsx
+++ b/powerapp/data/emls_assignment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Job\1_Operation\Network\System_Defences\UFLS_UVLS\2025_Review\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\work\power_app\powerapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70289D4-DD90-4D90-8D47-0E19D4C6EBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5512DFC-7AA6-4E42-A366-D07EF73214C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{EAAC684E-7C1B-4F2F-BC7C-B97D8EF3A83B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ufls_assignment" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ufls_assignment!$A$1:$C$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ufls_assignment!$A$1:$C$177</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="191">
   <si>
     <t>blkg_33</t>
   </si>
@@ -600,240 +600,6 @@
   </si>
   <si>
     <t>sksp_mwta_132</t>
-  </si>
-  <si>
-    <t>msng_11</t>
-  </si>
-  <si>
-    <t>slng_11</t>
-  </si>
-  <si>
-    <t>btgh_33</t>
-  </si>
-  <si>
-    <t>bcvs_11</t>
-  </si>
-  <si>
-    <t>hkck_33</t>
-  </si>
-  <si>
-    <t>slng_33</t>
-  </si>
-  <si>
-    <t>btbn_33</t>
-  </si>
-  <si>
-    <t>hkck_11</t>
-  </si>
-  <si>
-    <t>tjya_33</t>
-  </si>
-  <si>
-    <t>sdai_33</t>
-  </si>
-  <si>
-    <t>utrm_22</t>
-  </si>
-  <si>
-    <t>utrm_33</t>
-  </si>
-  <si>
-    <t>pkan_11</t>
-  </si>
-  <si>
-    <t>rpts_11</t>
-  </si>
-  <si>
-    <t>rngt_11</t>
-  </si>
-  <si>
-    <t>gpth_33</t>
-  </si>
-  <si>
-    <t>pmka_33</t>
-  </si>
-  <si>
-    <t>dkmt_33</t>
-  </si>
-  <si>
-    <t>dbay_33</t>
-  </si>
-  <si>
-    <t>elmw_33</t>
-  </si>
-  <si>
-    <t>pgeh_33</t>
-  </si>
-  <si>
-    <t>jdhl_33</t>
-  </si>
-  <si>
-    <t>ioim_33</t>
-  </si>
-  <si>
-    <t>kerc_33</t>
-  </si>
-  <si>
-    <t>ttkj_33</t>
-  </si>
-  <si>
-    <t>pbtr_11</t>
-  </si>
-  <si>
-    <t>dmht_33</t>
-  </si>
-  <si>
-    <t>nkst_33</t>
-  </si>
-  <si>
-    <t>pulu_33</t>
-  </si>
-  <si>
-    <t>ssww_33</t>
-  </si>
-  <si>
-    <t>pnwr_11</t>
-  </si>
-  <si>
-    <t>bpht_11</t>
-  </si>
-  <si>
-    <t>msng_33</t>
-  </si>
-  <si>
-    <t>klcc_11</t>
-  </si>
-  <si>
-    <t>tjid_11</t>
-  </si>
-  <si>
-    <t>tjid_33</t>
-  </si>
-  <si>
-    <t>spid_11</t>
-  </si>
-  <si>
-    <t>spid_33</t>
-  </si>
-  <si>
-    <t>gbng_11</t>
-  </si>
-  <si>
-    <t>gbng_33</t>
-  </si>
-  <si>
-    <t>blps_33</t>
-  </si>
-  <si>
-    <t>kkup_11</t>
-  </si>
-  <si>
-    <t>tgbu_11</t>
-  </si>
-  <si>
-    <t>tgbu_33</t>
-  </si>
-  <si>
-    <t>ktih_11</t>
-  </si>
-  <si>
-    <t>psri_11</t>
-  </si>
-  <si>
-    <t>grne_33</t>
-  </si>
-  <si>
-    <t>cbjn_11</t>
-  </si>
-  <si>
-    <t>cbjn_33</t>
-  </si>
-  <si>
-    <t>mtkb_11</t>
-  </si>
-  <si>
-    <t>jmth_11</t>
-  </si>
-  <si>
-    <t>mcrs_33</t>
-  </si>
-  <si>
-    <t>pvbj_33</t>
-  </si>
-  <si>
-    <t>fctr_33</t>
-  </si>
-  <si>
-    <t>pnga_33</t>
-  </si>
-  <si>
-    <t>srbi_33</t>
-  </si>
-  <si>
-    <t>jbsk_33</t>
-  </si>
-  <si>
-    <t>shte_33</t>
-  </si>
-  <si>
-    <t>adam_33</t>
-  </si>
-  <si>
-    <t>msai_33</t>
-  </si>
-  <si>
-    <t>mery_33</t>
-  </si>
-  <si>
-    <t>tgtk_33</t>
-  </si>
-  <si>
-    <t>sdnk_33</t>
-  </si>
-  <si>
-    <t>pgad_33</t>
-  </si>
-  <si>
-    <t>jing_33</t>
-  </si>
-  <si>
-    <t>snwg_33</t>
-  </si>
-  <si>
-    <t>tine_33</t>
-  </si>
-  <si>
-    <t>cbjc_11</t>
-  </si>
-  <si>
-    <t>cbjc_33</t>
-  </si>
-  <si>
-    <t>mtre_33</t>
-  </si>
-  <si>
-    <t>mwsn_33</t>
-  </si>
-  <si>
-    <t>plgi_33</t>
-  </si>
-  <si>
-    <t>vmbr_33</t>
-  </si>
-  <si>
-    <t>icnc_33</t>
-  </si>
-  <si>
-    <t>bbcc_33</t>
-  </si>
-  <si>
-    <t>tmwt_33</t>
-  </si>
-  <si>
-    <t>ozna_33</t>
-  </si>
-  <si>
-    <t>trxc_33</t>
   </si>
   <si>
     <t>tjgs_shel_132</t>
@@ -1259,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F1E9AA-42FA-48CE-9C0D-6753CE8DE448}">
-  <dimension ref="A1:C687"/>
+  <dimension ref="A1:C607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1274,7 +1040,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1">
         <v>2024</v>
@@ -1807,7 +1573,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>160</v>
@@ -2388,7 +2154,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>166</v>
@@ -2965,7 +2731,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="4" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>171</v>
@@ -3007,561 +2773,403 @@
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="5" t="s">
-        <v>189</v>
-      </c>
+    <row r="178" spans="1:3" s="7" customFormat="1">
+      <c r="A178"/>
+      <c r="B178"/>
+      <c r="C178"/>
+    </row>
+    <row r="179" spans="1:3" s="7" customFormat="1">
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="C179"/>
+    </row>
+    <row r="180" spans="1:3" s="7" customFormat="1">
+      <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="5" t="s">
-        <v>190</v>
-      </c>
+    <row r="181" spans="1:3" s="7" customFormat="1">
+      <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="5" t="s">
-        <v>191</v>
-      </c>
+    <row r="182" spans="1:3" s="7" customFormat="1">
+      <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
     </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="5" t="s">
-        <v>192</v>
-      </c>
+    <row r="183" spans="1:3" s="7" customFormat="1">
+      <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="5" t="s">
-        <v>193</v>
-      </c>
+    <row r="184" spans="1:3" s="7" customFormat="1">
+      <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="5" t="s">
-        <v>194</v>
-      </c>
+    <row r="185" spans="1:3" s="7" customFormat="1">
+      <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="5" t="s">
-        <v>196</v>
-      </c>
+      <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="5" t="s">
-        <v>197</v>
-      </c>
+      <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="5" t="s">
-        <v>198</v>
-      </c>
+      <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="5" t="s">
-        <v>199</v>
-      </c>
+      <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="5" t="s">
-        <v>200</v>
-      </c>
+      <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="5" t="s">
-        <v>202</v>
-      </c>
+      <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="5" t="s">
-        <v>203</v>
-      </c>
+    <row r="194" spans="1:3" s="7" customFormat="1">
+      <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="5" t="s">
-        <v>204</v>
-      </c>
+    <row r="195" spans="1:3" s="7" customFormat="1">
+      <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="5" t="s">
-        <v>205</v>
-      </c>
+      <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="5" t="s">
-        <v>206</v>
-      </c>
+      <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="5" t="s">
-        <v>207</v>
-      </c>
+      <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="5" t="s">
-        <v>208</v>
-      </c>
+      <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="5" t="s">
-        <v>210</v>
-      </c>
+      <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
     </row>
-    <row r="202" spans="1:3" s="7" customFormat="1">
-      <c r="A202" s="5" t="s">
-        <v>211</v>
-      </c>
+    <row r="202" spans="1:3">
+      <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="5" t="s">
-        <v>212</v>
-      </c>
+      <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="5" t="s">
-        <v>214</v>
-      </c>
+      <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="5" t="s">
-        <v>215</v>
-      </c>
+      <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="5" t="s">
-        <v>187</v>
-      </c>
+      <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="5" t="s">
-        <v>219</v>
-      </c>
+      <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="5" t="s">
-        <v>220</v>
-      </c>
+      <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="5" t="s">
-        <v>221</v>
-      </c>
+      <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="5" t="s">
-        <v>222</v>
-      </c>
+      <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="5" t="s">
-        <v>223</v>
-      </c>
+      <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="5" t="s">
-        <v>224</v>
-      </c>
+      <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="5" t="s">
-        <v>225</v>
-      </c>
+      <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="5" t="s">
-        <v>226</v>
-      </c>
+      <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="5" t="s">
-        <v>227</v>
-      </c>
+      <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="5" t="s">
-        <v>228</v>
-      </c>
+      <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="5" t="s">
-        <v>229</v>
-      </c>
+      <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="5" t="s">
-        <v>230</v>
-      </c>
+    <row r="222" spans="1:3" s="7" customFormat="1">
+      <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="5" t="s">
-        <v>231</v>
-      </c>
+    <row r="223" spans="1:3" s="7" customFormat="1">
+      <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="5" t="s">
-        <v>232</v>
-      </c>
+    <row r="224" spans="1:3" s="7" customFormat="1">
+      <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="5" t="s">
-        <v>233</v>
-      </c>
+    <row r="225" spans="1:3" s="7" customFormat="1">
+      <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="5" t="s">
-        <v>234</v>
-      </c>
+    <row r="226" spans="1:3" s="7" customFormat="1">
+      <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
     </row>
-    <row r="227" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A227" s="5" t="s">
-        <v>235</v>
-      </c>
+    <row r="227" spans="1:3" s="7" customFormat="1">
+      <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
     </row>
-    <row r="228" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A228" s="5" t="s">
-        <v>236</v>
-      </c>
+    <row r="228" spans="1:3">
+      <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
     </row>
-    <row r="229" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A229" s="5" t="s">
-        <v>237</v>
-      </c>
+    <row r="229" spans="1:3">
+      <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
     </row>
-    <row r="230" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A230" s="5" t="s">
-        <v>238</v>
-      </c>
+    <row r="230" spans="1:3">
+      <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
     </row>
-    <row r="231" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A231" s="5" t="s">
-        <v>239</v>
-      </c>
+    <row r="231" spans="1:3">
+      <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
     </row>
-    <row r="232" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A232" s="5" t="s">
-        <v>240</v>
-      </c>
+    <row r="232" spans="1:3">
+      <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
     </row>
-    <row r="233" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A233" s="5" t="s">
-        <v>241</v>
-      </c>
+    <row r="233" spans="1:3">
+      <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
     </row>
-    <row r="234" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A234" s="5" t="s">
-        <v>242</v>
-      </c>
+    <row r="234" spans="1:3">
+      <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
     </row>
-    <row r="235" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A235" s="5" t="s">
-        <v>243</v>
-      </c>
+    <row r="235" spans="1:3">
+      <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
     </row>
-    <row r="236" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A236" s="5" t="s">
-        <v>244</v>
-      </c>
+    <row r="236" spans="1:3">
+      <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
     </row>
-    <row r="237" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A237" s="5" t="s">
-        <v>245</v>
-      </c>
+    <row r="237" spans="1:3">
+      <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
     </row>
-    <row r="238" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A238" s="5" t="s">
-        <v>246</v>
-      </c>
+    <row r="238" spans="1:3">
+      <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
     </row>
-    <row r="239" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A239" s="5" t="s">
-        <v>247</v>
-      </c>
+    <row r="239" spans="1:3">
+      <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
     </row>
-    <row r="240" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A240" s="5" t="s">
-        <v>248</v>
-      </c>
+    <row r="240" spans="1:3">
+      <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
     </row>
-    <row r="241" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A241" s="5" t="s">
-        <v>249</v>
-      </c>
+    <row r="241" spans="1:3">
+      <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
     </row>
-    <row r="242" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A242" s="5" t="s">
-        <v>250</v>
-      </c>
+    <row r="242" spans="1:3">
+      <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
     </row>
-    <row r="243" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A243" s="5" t="s">
-        <v>251</v>
-      </c>
+    <row r="243" spans="1:3">
+      <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
     </row>
-    <row r="244" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A244" s="5" t="s">
-        <v>252</v>
-      </c>
+    <row r="244" spans="1:3">
+      <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
     </row>
-    <row r="245" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A245" s="5" t="s">
-        <v>253</v>
-      </c>
+    <row r="245" spans="1:3">
+      <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
     </row>
-    <row r="246" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A246" s="5" t="s">
-        <v>254</v>
-      </c>
+    <row r="246" spans="1:3">
+      <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
     </row>
-    <row r="247" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A247" s="5" t="s">
-        <v>255</v>
-      </c>
+    <row r="247" spans="1:3">
+      <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="5" t="s">
-        <v>256</v>
-      </c>
+      <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="5" t="s">
-        <v>257</v>
-      </c>
+      <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="5" t="s">
-        <v>258</v>
-      </c>
+      <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="5" t="s">
-        <v>259</v>
-      </c>
+      <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="5" t="s">
-        <v>259</v>
-      </c>
+      <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="5" t="s">
-        <v>260</v>
-      </c>
+      <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="5" t="s">
-        <v>261</v>
-      </c>
+      <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="5" t="s">
-        <v>262</v>
-      </c>
+      <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
     </row>
-    <row r="256" spans="1:3" s="7" customFormat="1">
-      <c r="A256" s="5" t="s">
-        <v>263</v>
-      </c>
+    <row r="256" spans="1:3">
+      <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
     </row>
     <row r="257" spans="1:3" s="7" customFormat="1">
-      <c r="A257" s="5" t="s">
-        <v>264</v>
-      </c>
+      <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
     </row>
@@ -3570,37 +3178,37 @@
       <c r="B258"/>
       <c r="C258"/>
     </row>
-    <row r="259" spans="1:3" s="7" customFormat="1">
+    <row r="259" spans="1:3">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
     </row>
-    <row r="260" spans="1:3" s="7" customFormat="1">
+    <row r="260" spans="1:3">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
     </row>
-    <row r="261" spans="1:3" s="7" customFormat="1">
+    <row r="261" spans="1:3">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
     </row>
-    <row r="262" spans="1:3" s="7" customFormat="1">
+    <row r="262" spans="1:3">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
     </row>
-    <row r="263" spans="1:3" s="7" customFormat="1">
+    <row r="263" spans="1:3">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
     </row>
-    <row r="264" spans="1:3" s="7" customFormat="1">
+    <row r="264" spans="1:3">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
     </row>
-    <row r="265" spans="1:3" s="7" customFormat="1">
+    <row r="265" spans="1:3">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
@@ -3610,47 +3218,47 @@
       <c r="B266"/>
       <c r="C266"/>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" ht="14.5" customHeight="1">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" ht="14.5" customHeight="1">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" ht="14.5" customHeight="1">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" ht="14.5" customHeight="1">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" ht="14.5" customHeight="1">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" ht="14.5" customHeight="1">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" ht="14.5" customHeight="1">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
     </row>
-    <row r="274" spans="1:3" s="7" customFormat="1">
+    <row r="274" spans="1:3" ht="14.5" customHeight="1">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
     </row>
-    <row r="275" spans="1:3" s="7" customFormat="1">
+    <row r="275" spans="1:3">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
@@ -3720,67 +3328,67 @@
       <c r="B288"/>
       <c r="C288"/>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" s="7" customFormat="1">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" s="7" customFormat="1">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" s="7" customFormat="1">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" s="7" customFormat="1">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" s="7" customFormat="1">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" s="7" customFormat="1">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" s="7" customFormat="1">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" s="7" customFormat="1">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" s="7" customFormat="1">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" s="7" customFormat="1">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" s="7" customFormat="1">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" s="7" customFormat="1">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" s="7" customFormat="1">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
@@ -3795,22 +3403,22 @@
       <c r="B303"/>
       <c r="C303"/>
     </row>
-    <row r="304" spans="1:3" s="7" customFormat="1">
+    <row r="304" spans="1:3">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
     </row>
-    <row r="305" spans="1:3" s="7" customFormat="1">
+    <row r="305" spans="1:3">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
     </row>
-    <row r="306" spans="1:3" s="7" customFormat="1">
+    <row r="306" spans="1:3">
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
     </row>
-    <row r="307" spans="1:3" s="7" customFormat="1">
+    <row r="307" spans="1:3">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
@@ -3960,12 +3568,12 @@
       <c r="B336"/>
       <c r="C336"/>
     </row>
-    <row r="337" spans="1:3" s="7" customFormat="1">
+    <row r="337" spans="1:3">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
     </row>
-    <row r="338" spans="1:3" s="7" customFormat="1">
+    <row r="338" spans="1:3">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
@@ -4010,42 +3618,42 @@
       <c r="B346"/>
       <c r="C346"/>
     </row>
-    <row r="347" spans="1:3" ht="14.5" customHeight="1">
+    <row r="347" spans="1:3">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
     </row>
-    <row r="348" spans="1:3" ht="14.5" customHeight="1">
+    <row r="348" spans="1:3">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
     </row>
-    <row r="349" spans="1:3" ht="14.5" customHeight="1">
+    <row r="349" spans="1:3">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
     </row>
-    <row r="350" spans="1:3" ht="14.5" customHeight="1">
+    <row r="350" spans="1:3">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
     </row>
-    <row r="351" spans="1:3" ht="14.5" customHeight="1">
+    <row r="351" spans="1:3">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
     </row>
-    <row r="352" spans="1:3" ht="14.5" customHeight="1">
+    <row r="352" spans="1:3">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
     </row>
-    <row r="353" spans="1:3" ht="14.5" customHeight="1">
+    <row r="353" spans="1:3" s="7" customFormat="1">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
     </row>
-    <row r="354" spans="1:3" ht="14.5" customHeight="1">
+    <row r="354" spans="1:3">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
@@ -4085,7 +3693,7 @@
       <c r="B361"/>
       <c r="C361"/>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" s="7" customFormat="1">
       <c r="A362"/>
       <c r="B362"/>
       <c r="C362"/>
@@ -4120,77 +3728,77 @@
       <c r="B368"/>
       <c r="C368"/>
     </row>
-    <row r="369" spans="1:3" s="7" customFormat="1">
+    <row r="369" spans="1:3">
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
     </row>
-    <row r="370" spans="1:3" s="7" customFormat="1">
+    <row r="370" spans="1:3">
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
     </row>
-    <row r="371" spans="1:3" s="7" customFormat="1">
+    <row r="371" spans="1:3">
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
     </row>
-    <row r="372" spans="1:3" s="7" customFormat="1">
+    <row r="372" spans="1:3">
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
     </row>
-    <row r="373" spans="1:3" s="7" customFormat="1">
+    <row r="373" spans="1:3">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
     </row>
-    <row r="374" spans="1:3" s="7" customFormat="1">
+    <row r="374" spans="1:3">
       <c r="A374"/>
       <c r="B374"/>
       <c r="C374"/>
     </row>
-    <row r="375" spans="1:3" s="7" customFormat="1">
+    <row r="375" spans="1:3">
       <c r="A375"/>
       <c r="B375"/>
       <c r="C375"/>
     </row>
-    <row r="376" spans="1:3" s="7" customFormat="1">
+    <row r="376" spans="1:3">
       <c r="A376"/>
       <c r="B376"/>
       <c r="C376"/>
     </row>
-    <row r="377" spans="1:3" s="7" customFormat="1">
+    <row r="377" spans="1:3">
       <c r="A377"/>
       <c r="B377"/>
       <c r="C377"/>
     </row>
-    <row r="378" spans="1:3" s="7" customFormat="1">
+    <row r="378" spans="1:3">
       <c r="A378"/>
       <c r="B378"/>
       <c r="C378"/>
     </row>
-    <row r="379" spans="1:3" s="7" customFormat="1">
+    <row r="379" spans="1:3">
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
     </row>
-    <row r="380" spans="1:3" s="7" customFormat="1">
+    <row r="380" spans="1:3">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
     </row>
-    <row r="381" spans="1:3" s="7" customFormat="1">
+    <row r="381" spans="1:3">
       <c r="A381"/>
       <c r="B381"/>
       <c r="C381"/>
     </row>
-    <row r="382" spans="1:3" s="7" customFormat="1">
+    <row r="382" spans="1:3">
       <c r="A382"/>
       <c r="B382"/>
       <c r="C382"/>
     </row>
-    <row r="383" spans="1:3" s="7" customFormat="1">
+    <row r="383" spans="1:3">
       <c r="A383"/>
       <c r="B383"/>
       <c r="C383"/>
@@ -4215,52 +3823,52 @@
       <c r="B387"/>
       <c r="C387"/>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" s="7" customFormat="1">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" s="7" customFormat="1">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" s="7" customFormat="1">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" s="7" customFormat="1">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" s="7" customFormat="1">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" s="7" customFormat="1">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" s="7" customFormat="1">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" s="7" customFormat="1">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" s="7" customFormat="1">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" s="7" customFormat="1">
       <c r="A397"/>
       <c r="B397"/>
       <c r="C397"/>
@@ -4435,62 +4043,62 @@
       <c r="B431"/>
       <c r="C431"/>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" ht="14.5" customHeight="1">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
     </row>
-    <row r="433" spans="1:3" s="7" customFormat="1">
+    <row r="433" spans="1:3" ht="14.5" customHeight="1">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" ht="14.5" customHeight="1">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" ht="14.5" customHeight="1">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" ht="14.5" customHeight="1">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" ht="14.5" customHeight="1">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" ht="14.5" customHeight="1">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" ht="14.5" customHeight="1">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" ht="14.5" customHeight="1">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" ht="14.5" customHeight="1">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
     </row>
-    <row r="442" spans="1:3" s="7" customFormat="1">
+    <row r="442" spans="1:3" ht="14.5" customHeight="1">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" ht="14.5" customHeight="1">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
@@ -4610,402 +4218,402 @@
       <c r="B466"/>
       <c r="C466"/>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" s="6" customFormat="1">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
     </row>
-    <row r="468" spans="1:3" s="7" customFormat="1">
+    <row r="468" spans="1:3" s="6" customFormat="1">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
     </row>
-    <row r="469" spans="1:3" s="7" customFormat="1">
+    <row r="469" spans="1:3" s="6" customFormat="1">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
     </row>
-    <row r="470" spans="1:3" s="7" customFormat="1">
+    <row r="470" spans="1:3" s="6" customFormat="1">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
     </row>
-    <row r="471" spans="1:3" s="7" customFormat="1">
+    <row r="471" spans="1:3" s="6" customFormat="1">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
     </row>
-    <row r="472" spans="1:3" s="7" customFormat="1">
+    <row r="472" spans="1:3" s="6" customFormat="1">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
     </row>
-    <row r="473" spans="1:3" s="7" customFormat="1">
+    <row r="473" spans="1:3" s="6" customFormat="1">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
     </row>
-    <row r="474" spans="1:3" s="7" customFormat="1">
+    <row r="474" spans="1:3" s="6" customFormat="1">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
     </row>
-    <row r="475" spans="1:3" s="7" customFormat="1">
+    <row r="475" spans="1:3" s="6" customFormat="1">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
     </row>
-    <row r="476" spans="1:3" s="7" customFormat="1">
+    <row r="476" spans="1:3" s="6" customFormat="1">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
     </row>
-    <row r="477" spans="1:3" s="7" customFormat="1">
+    <row r="477" spans="1:3" s="6" customFormat="1">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" s="6" customFormat="1">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" s="6" customFormat="1">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" s="6" customFormat="1">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" s="6" customFormat="1">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" s="6" customFormat="1">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" s="6" customFormat="1">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" s="6" customFormat="1">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" s="6" customFormat="1">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" s="6" customFormat="1">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" s="6" customFormat="1">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" s="6" customFormat="1">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" s="6" customFormat="1">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" s="6" customFormat="1">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" s="6" customFormat="1">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" s="6" customFormat="1">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" s="6" customFormat="1">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" s="6" customFormat="1">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" s="6" customFormat="1">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" s="6" customFormat="1">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" s="6" customFormat="1">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" s="6" customFormat="1">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" s="6" customFormat="1">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" s="6" customFormat="1">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" s="6" customFormat="1">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" s="6" customFormat="1">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" s="6" customFormat="1">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" s="6" customFormat="1">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" s="6" customFormat="1">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" s="6" customFormat="1">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" s="6" customFormat="1">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" s="6" customFormat="1">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" s="6" customFormat="1">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" s="6" customFormat="1">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" s="6" customFormat="1">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
     </row>
-    <row r="512" spans="1:3" ht="14.5" customHeight="1">
+    <row r="512" spans="1:3" s="6" customFormat="1">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
     </row>
-    <row r="513" spans="1:3" ht="14.5" customHeight="1">
+    <row r="513" spans="1:3" s="6" customFormat="1">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
     </row>
-    <row r="514" spans="1:3" ht="14.5" customHeight="1">
+    <row r="514" spans="1:3" s="6" customFormat="1">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
     </row>
-    <row r="515" spans="1:3" ht="14.5" customHeight="1">
+    <row r="515" spans="1:3" s="6" customFormat="1">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
     </row>
-    <row r="516" spans="1:3" ht="14.5" customHeight="1">
+    <row r="516" spans="1:3" s="6" customFormat="1">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
     </row>
-    <row r="517" spans="1:3" ht="14.5" customHeight="1">
+    <row r="517" spans="1:3" s="6" customFormat="1">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
     </row>
-    <row r="518" spans="1:3" ht="14.5" customHeight="1">
+    <row r="518" spans="1:3" s="6" customFormat="1">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
     </row>
-    <row r="519" spans="1:3" ht="14.5" customHeight="1">
+    <row r="519" spans="1:3" s="6" customFormat="1">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
     </row>
-    <row r="520" spans="1:3" ht="14.5" customHeight="1">
+    <row r="520" spans="1:3" s="6" customFormat="1">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
     </row>
-    <row r="521" spans="1:3" ht="14.5" customHeight="1">
+    <row r="521" spans="1:3" s="6" customFormat="1">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
     </row>
-    <row r="522" spans="1:3" ht="14.5" customHeight="1">
+    <row r="522" spans="1:3" s="6" customFormat="1">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
     </row>
-    <row r="523" spans="1:3" ht="14.5" customHeight="1">
+    <row r="523" spans="1:3" s="6" customFormat="1">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" s="6" customFormat="1">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" s="6" customFormat="1">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" s="6" customFormat="1">
       <c r="A526"/>
       <c r="B526"/>
       <c r="C526"/>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" s="6" customFormat="1">
       <c r="A527"/>
       <c r="B527"/>
       <c r="C527"/>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" s="6" customFormat="1">
       <c r="A528"/>
       <c r="B528"/>
       <c r="C528"/>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" s="6" customFormat="1">
       <c r="A529"/>
       <c r="B529"/>
       <c r="C529"/>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" s="6" customFormat="1">
       <c r="A530"/>
       <c r="B530"/>
       <c r="C530"/>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" s="6" customFormat="1">
       <c r="A531"/>
       <c r="B531"/>
       <c r="C531"/>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" s="6" customFormat="1">
       <c r="A532"/>
       <c r="B532"/>
       <c r="C532"/>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" s="6" customFormat="1">
       <c r="A533"/>
       <c r="B533"/>
       <c r="C533"/>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" s="6" customFormat="1">
       <c r="A534"/>
       <c r="B534"/>
       <c r="C534"/>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" s="6" customFormat="1">
       <c r="A535"/>
       <c r="B535"/>
       <c r="C535"/>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" s="6" customFormat="1">
       <c r="A536"/>
       <c r="B536"/>
       <c r="C536"/>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" s="6" customFormat="1">
       <c r="A537"/>
       <c r="B537"/>
       <c r="C537"/>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" s="6" customFormat="1">
       <c r="A538"/>
       <c r="B538"/>
       <c r="C538"/>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" s="6" customFormat="1">
       <c r="A539"/>
       <c r="B539"/>
       <c r="C539"/>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" s="6" customFormat="1">
       <c r="A540"/>
       <c r="B540"/>
       <c r="C540"/>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" s="6" customFormat="1">
       <c r="A541"/>
       <c r="B541"/>
       <c r="C541"/>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" s="6" customFormat="1">
       <c r="A542"/>
       <c r="B542"/>
       <c r="C542"/>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" s="6" customFormat="1">
       <c r="A543"/>
       <c r="B543"/>
       <c r="C543"/>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" s="6" customFormat="1">
       <c r="A544"/>
       <c r="B544"/>
       <c r="C544"/>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" s="6" customFormat="1">
       <c r="A545"/>
       <c r="B545"/>
       <c r="C545"/>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" s="6" customFormat="1">
       <c r="A546"/>
       <c r="B546"/>
       <c r="C546"/>
@@ -5060,663 +4668,263 @@
       <c r="B556"/>
       <c r="C556"/>
     </row>
-    <row r="557" spans="1:3" s="6" customFormat="1">
+    <row r="557" spans="1:3" s="8" customFormat="1">
       <c r="A557"/>
       <c r="B557"/>
       <c r="C557"/>
     </row>
-    <row r="558" spans="1:3" s="6" customFormat="1">
+    <row r="558" spans="1:3" s="8" customFormat="1">
       <c r="A558"/>
       <c r="B558"/>
       <c r="C558"/>
     </row>
-    <row r="559" spans="1:3" s="6" customFormat="1">
+    <row r="559" spans="1:3" s="8" customFormat="1">
       <c r="A559"/>
       <c r="B559"/>
       <c r="C559"/>
     </row>
-    <row r="560" spans="1:3" s="6" customFormat="1">
+    <row r="560" spans="1:3" s="8" customFormat="1">
       <c r="A560"/>
       <c r="B560"/>
       <c r="C560"/>
     </row>
-    <row r="561" spans="1:3" s="6" customFormat="1">
+    <row r="561" spans="1:3" s="8" customFormat="1">
       <c r="A561"/>
       <c r="B561"/>
       <c r="C561"/>
     </row>
-    <row r="562" spans="1:3" s="6" customFormat="1">
+    <row r="562" spans="1:3" s="8" customFormat="1">
       <c r="A562"/>
       <c r="B562"/>
       <c r="C562"/>
     </row>
-    <row r="563" spans="1:3" s="6" customFormat="1">
+    <row r="563" spans="1:3" s="8" customFormat="1">
       <c r="A563"/>
       <c r="B563"/>
       <c r="C563"/>
     </row>
-    <row r="564" spans="1:3" s="6" customFormat="1">
+    <row r="564" spans="1:3" s="8" customFormat="1">
       <c r="A564"/>
       <c r="B564"/>
       <c r="C564"/>
     </row>
-    <row r="565" spans="1:3" s="6" customFormat="1">
+    <row r="565" spans="1:3" s="8" customFormat="1">
       <c r="A565"/>
       <c r="B565"/>
       <c r="C565"/>
     </row>
-    <row r="566" spans="1:3" s="6" customFormat="1">
+    <row r="566" spans="1:3" s="8" customFormat="1">
       <c r="A566"/>
       <c r="B566"/>
       <c r="C566"/>
     </row>
-    <row r="567" spans="1:3" s="6" customFormat="1">
+    <row r="567" spans="1:3" s="8" customFormat="1">
       <c r="A567"/>
       <c r="B567"/>
       <c r="C567"/>
     </row>
-    <row r="568" spans="1:3" s="6" customFormat="1">
+    <row r="568" spans="1:3" s="8" customFormat="1">
       <c r="A568"/>
       <c r="B568"/>
       <c r="C568"/>
     </row>
-    <row r="569" spans="1:3" s="6" customFormat="1">
+    <row r="569" spans="1:3" s="8" customFormat="1">
       <c r="A569"/>
       <c r="B569"/>
       <c r="C569"/>
     </row>
-    <row r="570" spans="1:3" s="6" customFormat="1">
+    <row r="570" spans="1:3" s="8" customFormat="1">
       <c r="A570"/>
       <c r="B570"/>
       <c r="C570"/>
     </row>
-    <row r="571" spans="1:3" s="6" customFormat="1">
+    <row r="571" spans="1:3" s="8" customFormat="1">
       <c r="A571"/>
       <c r="B571"/>
       <c r="C571"/>
     </row>
-    <row r="572" spans="1:3" s="6" customFormat="1">
+    <row r="572" spans="1:3" s="8" customFormat="1">
       <c r="A572"/>
       <c r="B572"/>
       <c r="C572"/>
     </row>
-    <row r="573" spans="1:3" s="6" customFormat="1">
+    <row r="573" spans="1:3" s="8" customFormat="1">
       <c r="A573"/>
       <c r="B573"/>
       <c r="C573"/>
     </row>
-    <row r="574" spans="1:3" s="6" customFormat="1">
+    <row r="574" spans="1:3" s="8" customFormat="1">
       <c r="A574"/>
       <c r="B574"/>
       <c r="C574"/>
     </row>
-    <row r="575" spans="1:3" s="6" customFormat="1">
+    <row r="575" spans="1:3" s="8" customFormat="1">
       <c r="A575"/>
       <c r="B575"/>
       <c r="C575"/>
     </row>
-    <row r="576" spans="1:3" s="6" customFormat="1">
+    <row r="576" spans="1:3" s="8" customFormat="1">
       <c r="A576"/>
       <c r="B576"/>
       <c r="C576"/>
     </row>
-    <row r="577" spans="1:3" s="6" customFormat="1">
+    <row r="577" spans="1:3" s="8" customFormat="1">
       <c r="A577"/>
       <c r="B577"/>
       <c r="C577"/>
     </row>
-    <row r="578" spans="1:3" s="6" customFormat="1">
+    <row r="578" spans="1:3" s="8" customFormat="1">
       <c r="A578"/>
       <c r="B578"/>
       <c r="C578"/>
     </row>
-    <row r="579" spans="1:3" s="6" customFormat="1">
+    <row r="579" spans="1:3" s="8" customFormat="1">
       <c r="A579"/>
       <c r="B579"/>
       <c r="C579"/>
     </row>
-    <row r="580" spans="1:3" s="6" customFormat="1">
+    <row r="580" spans="1:3" s="8" customFormat="1">
       <c r="A580"/>
       <c r="B580"/>
       <c r="C580"/>
     </row>
-    <row r="581" spans="1:3" s="6" customFormat="1">
+    <row r="581" spans="1:3">
       <c r="A581"/>
       <c r="B581"/>
       <c r="C581"/>
     </row>
-    <row r="582" spans="1:3" s="6" customFormat="1">
+    <row r="582" spans="1:3">
       <c r="A582"/>
       <c r="B582"/>
       <c r="C582"/>
     </row>
-    <row r="583" spans="1:3" s="6" customFormat="1">
+    <row r="583" spans="1:3">
       <c r="A583"/>
       <c r="B583"/>
       <c r="C583"/>
     </row>
-    <row r="584" spans="1:3" s="6" customFormat="1">
+    <row r="584" spans="1:3">
       <c r="A584"/>
       <c r="B584"/>
       <c r="C584"/>
     </row>
-    <row r="585" spans="1:3" s="6" customFormat="1">
+    <row r="585" spans="1:3">
       <c r="A585"/>
       <c r="B585"/>
       <c r="C585"/>
     </row>
-    <row r="586" spans="1:3" s="6" customFormat="1">
+    <row r="586" spans="1:3">
       <c r="A586"/>
       <c r="B586"/>
       <c r="C586"/>
     </row>
-    <row r="587" spans="1:3" s="6" customFormat="1">
+    <row r="587" spans="1:3">
       <c r="A587"/>
       <c r="B587"/>
       <c r="C587"/>
     </row>
-    <row r="588" spans="1:3" s="6" customFormat="1">
+    <row r="588" spans="1:3">
       <c r="A588"/>
       <c r="B588"/>
       <c r="C588"/>
     </row>
-    <row r="589" spans="1:3" s="6" customFormat="1">
+    <row r="589" spans="1:3">
       <c r="A589"/>
       <c r="B589"/>
       <c r="C589"/>
     </row>
-    <row r="590" spans="1:3" s="6" customFormat="1">
+    <row r="590" spans="1:3">
       <c r="A590"/>
       <c r="B590"/>
       <c r="C590"/>
     </row>
-    <row r="591" spans="1:3" s="6" customFormat="1">
+    <row r="591" spans="1:3">
       <c r="A591"/>
       <c r="B591"/>
       <c r="C591"/>
     </row>
-    <row r="592" spans="1:3" s="6" customFormat="1">
+    <row r="592" spans="1:3">
       <c r="A592"/>
       <c r="B592"/>
       <c r="C592"/>
     </row>
-    <row r="593" spans="1:3" s="6" customFormat="1">
+    <row r="593" spans="1:3">
       <c r="A593"/>
       <c r="B593"/>
       <c r="C593"/>
     </row>
-    <row r="594" spans="1:3" s="6" customFormat="1">
+    <row r="594" spans="1:3">
       <c r="A594"/>
       <c r="B594"/>
       <c r="C594"/>
     </row>
-    <row r="595" spans="1:3" s="6" customFormat="1">
+    <row r="595" spans="1:3">
       <c r="A595"/>
       <c r="B595"/>
       <c r="C595"/>
     </row>
-    <row r="596" spans="1:3" s="6" customFormat="1">
+    <row r="596" spans="1:3">
       <c r="A596"/>
       <c r="B596"/>
       <c r="C596"/>
     </row>
-    <row r="597" spans="1:3" s="6" customFormat="1">
+    <row r="597" spans="1:3">
       <c r="A597"/>
       <c r="B597"/>
       <c r="C597"/>
     </row>
-    <row r="598" spans="1:3" s="6" customFormat="1">
+    <row r="598" spans="1:3">
       <c r="A598"/>
       <c r="B598"/>
       <c r="C598"/>
     </row>
-    <row r="599" spans="1:3" s="6" customFormat="1">
+    <row r="599" spans="1:3">
       <c r="A599"/>
       <c r="B599"/>
       <c r="C599"/>
     </row>
-    <row r="600" spans="1:3" s="6" customFormat="1">
+    <row r="600" spans="1:3">
       <c r="A600"/>
       <c r="B600"/>
       <c r="C600"/>
     </row>
-    <row r="601" spans="1:3" s="6" customFormat="1">
+    <row r="601" spans="1:3">
       <c r="A601"/>
       <c r="B601"/>
       <c r="C601"/>
     </row>
-    <row r="602" spans="1:3" s="6" customFormat="1">
+    <row r="602" spans="1:3">
       <c r="A602"/>
       <c r="B602"/>
       <c r="C602"/>
     </row>
-    <row r="603" spans="1:3" s="6" customFormat="1">
+    <row r="603" spans="1:3">
       <c r="A603"/>
       <c r="B603"/>
       <c r="C603"/>
     </row>
-    <row r="604" spans="1:3" s="6" customFormat="1">
+    <row r="604" spans="1:3">
       <c r="A604"/>
       <c r="B604"/>
       <c r="C604"/>
     </row>
-    <row r="605" spans="1:3" s="6" customFormat="1">
+    <row r="605" spans="1:3">
       <c r="A605"/>
       <c r="B605"/>
       <c r="C605"/>
     </row>
-    <row r="606" spans="1:3" s="6" customFormat="1">
+    <row r="606" spans="1:3">
       <c r="A606"/>
       <c r="B606"/>
       <c r="C606"/>
     </row>
-    <row r="607" spans="1:3" s="6" customFormat="1">
+    <row r="607" spans="1:3">
       <c r="A607"/>
       <c r="B607"/>
       <c r="C607"/>
     </row>
-    <row r="608" spans="1:3" s="6" customFormat="1">
-      <c r="A608"/>
-      <c r="B608"/>
-      <c r="C608"/>
-    </row>
-    <row r="609" spans="1:3" s="6" customFormat="1">
-      <c r="A609"/>
-      <c r="B609"/>
-      <c r="C609"/>
-    </row>
-    <row r="610" spans="1:3" s="6" customFormat="1">
-      <c r="A610"/>
-      <c r="B610"/>
-      <c r="C610"/>
-    </row>
-    <row r="611" spans="1:3" s="6" customFormat="1">
-      <c r="A611"/>
-      <c r="B611"/>
-      <c r="C611"/>
-    </row>
-    <row r="612" spans="1:3" s="6" customFormat="1">
-      <c r="A612"/>
-      <c r="B612"/>
-      <c r="C612"/>
-    </row>
-    <row r="613" spans="1:3" s="6" customFormat="1">
-      <c r="A613"/>
-      <c r="B613"/>
-      <c r="C613"/>
-    </row>
-    <row r="614" spans="1:3" s="6" customFormat="1">
-      <c r="A614"/>
-      <c r="B614"/>
-      <c r="C614"/>
-    </row>
-    <row r="615" spans="1:3" s="6" customFormat="1">
-      <c r="A615"/>
-      <c r="B615"/>
-      <c r="C615"/>
-    </row>
-    <row r="616" spans="1:3" s="6" customFormat="1">
-      <c r="A616"/>
-      <c r="B616"/>
-      <c r="C616"/>
-    </row>
-    <row r="617" spans="1:3" s="6" customFormat="1">
-      <c r="A617"/>
-      <c r="B617"/>
-      <c r="C617"/>
-    </row>
-    <row r="618" spans="1:3" s="6" customFormat="1">
-      <c r="A618"/>
-      <c r="B618"/>
-      <c r="C618"/>
-    </row>
-    <row r="619" spans="1:3" s="6" customFormat="1">
-      <c r="A619"/>
-      <c r="B619"/>
-      <c r="C619"/>
-    </row>
-    <row r="620" spans="1:3" s="6" customFormat="1">
-      <c r="A620"/>
-      <c r="B620"/>
-      <c r="C620"/>
-    </row>
-    <row r="621" spans="1:3" s="6" customFormat="1">
-      <c r="A621"/>
-      <c r="B621"/>
-      <c r="C621"/>
-    </row>
-    <row r="622" spans="1:3" s="6" customFormat="1">
-      <c r="A622"/>
-      <c r="B622"/>
-      <c r="C622"/>
-    </row>
-    <row r="623" spans="1:3" s="6" customFormat="1">
-      <c r="A623"/>
-      <c r="B623"/>
-      <c r="C623"/>
-    </row>
-    <row r="624" spans="1:3" s="6" customFormat="1">
-      <c r="A624"/>
-      <c r="B624"/>
-      <c r="C624"/>
-    </row>
-    <row r="625" spans="1:3" s="6" customFormat="1">
-      <c r="A625"/>
-      <c r="B625"/>
-      <c r="C625"/>
-    </row>
-    <row r="626" spans="1:3" s="6" customFormat="1">
-      <c r="A626"/>
-      <c r="B626"/>
-      <c r="C626"/>
-    </row>
-    <row r="627" spans="1:3" s="6" customFormat="1">
-      <c r="A627"/>
-      <c r="B627"/>
-      <c r="C627"/>
-    </row>
-    <row r="628" spans="1:3" s="6" customFormat="1">
-      <c r="A628"/>
-      <c r="B628"/>
-      <c r="C628"/>
-    </row>
-    <row r="629" spans="1:3" s="6" customFormat="1">
-      <c r="A629"/>
-      <c r="B629"/>
-      <c r="C629"/>
-    </row>
-    <row r="630" spans="1:3" s="6" customFormat="1">
-      <c r="A630"/>
-      <c r="B630"/>
-      <c r="C630"/>
-    </row>
-    <row r="631" spans="1:3" s="6" customFormat="1">
-      <c r="A631"/>
-      <c r="B631"/>
-      <c r="C631"/>
-    </row>
-    <row r="632" spans="1:3" s="6" customFormat="1">
-      <c r="A632"/>
-      <c r="B632"/>
-      <c r="C632"/>
-    </row>
-    <row r="633" spans="1:3" s="6" customFormat="1">
-      <c r="A633"/>
-      <c r="B633"/>
-      <c r="C633"/>
-    </row>
-    <row r="634" spans="1:3" s="6" customFormat="1">
-      <c r="A634"/>
-      <c r="B634"/>
-      <c r="C634"/>
-    </row>
-    <row r="635" spans="1:3" s="6" customFormat="1">
-      <c r="A635"/>
-      <c r="B635"/>
-      <c r="C635"/>
-    </row>
-    <row r="636" spans="1:3" s="6" customFormat="1">
-      <c r="A636"/>
-      <c r="B636"/>
-      <c r="C636"/>
-    </row>
-    <row r="637" spans="1:3" s="8" customFormat="1">
-      <c r="A637"/>
-      <c r="B637"/>
-      <c r="C637"/>
-    </row>
-    <row r="638" spans="1:3" s="8" customFormat="1">
-      <c r="A638"/>
-      <c r="B638"/>
-      <c r="C638"/>
-    </row>
-    <row r="639" spans="1:3" s="8" customFormat="1">
-      <c r="A639"/>
-      <c r="B639"/>
-      <c r="C639"/>
-    </row>
-    <row r="640" spans="1:3" s="8" customFormat="1">
-      <c r="A640"/>
-      <c r="B640"/>
-      <c r="C640"/>
-    </row>
-    <row r="641" spans="1:3" s="8" customFormat="1">
-      <c r="A641"/>
-      <c r="B641"/>
-      <c r="C641"/>
-    </row>
-    <row r="642" spans="1:3" s="8" customFormat="1">
-      <c r="A642"/>
-      <c r="B642"/>
-      <c r="C642"/>
-    </row>
-    <row r="643" spans="1:3" s="8" customFormat="1">
-      <c r="A643"/>
-      <c r="B643"/>
-      <c r="C643"/>
-    </row>
-    <row r="644" spans="1:3" s="8" customFormat="1">
-      <c r="A644"/>
-      <c r="B644"/>
-      <c r="C644"/>
-    </row>
-    <row r="645" spans="1:3" s="8" customFormat="1">
-      <c r="A645"/>
-      <c r="B645"/>
-      <c r="C645"/>
-    </row>
-    <row r="646" spans="1:3" s="8" customFormat="1">
-      <c r="A646"/>
-      <c r="B646"/>
-      <c r="C646"/>
-    </row>
-    <row r="647" spans="1:3" s="8" customFormat="1">
-      <c r="A647"/>
-      <c r="B647"/>
-      <c r="C647"/>
-    </row>
-    <row r="648" spans="1:3" s="8" customFormat="1">
-      <c r="A648"/>
-      <c r="B648"/>
-      <c r="C648"/>
-    </row>
-    <row r="649" spans="1:3" s="8" customFormat="1">
-      <c r="A649"/>
-      <c r="B649"/>
-      <c r="C649"/>
-    </row>
-    <row r="650" spans="1:3" s="8" customFormat="1">
-      <c r="A650"/>
-      <c r="B650"/>
-      <c r="C650"/>
-    </row>
-    <row r="651" spans="1:3" s="8" customFormat="1">
-      <c r="A651"/>
-      <c r="B651"/>
-      <c r="C651"/>
-    </row>
-    <row r="652" spans="1:3" s="8" customFormat="1">
-      <c r="A652"/>
-      <c r="B652"/>
-      <c r="C652"/>
-    </row>
-    <row r="653" spans="1:3" s="8" customFormat="1">
-      <c r="A653"/>
-      <c r="B653"/>
-      <c r="C653"/>
-    </row>
-    <row r="654" spans="1:3" s="8" customFormat="1">
-      <c r="A654"/>
-      <c r="B654"/>
-      <c r="C654"/>
-    </row>
-    <row r="655" spans="1:3" s="8" customFormat="1">
-      <c r="A655"/>
-      <c r="B655"/>
-      <c r="C655"/>
-    </row>
-    <row r="656" spans="1:3" s="8" customFormat="1">
-      <c r="A656"/>
-      <c r="B656"/>
-      <c r="C656"/>
-    </row>
-    <row r="657" spans="1:3" s="8" customFormat="1">
-      <c r="A657"/>
-      <c r="B657"/>
-      <c r="C657"/>
-    </row>
-    <row r="658" spans="1:3" s="8" customFormat="1">
-      <c r="A658"/>
-      <c r="B658"/>
-      <c r="C658"/>
-    </row>
-    <row r="659" spans="1:3" s="8" customFormat="1">
-      <c r="A659"/>
-      <c r="B659"/>
-      <c r="C659"/>
-    </row>
-    <row r="660" spans="1:3" s="8" customFormat="1">
-      <c r="A660"/>
-      <c r="B660"/>
-      <c r="C660"/>
-    </row>
-    <row r="661" spans="1:3">
-      <c r="A661"/>
-      <c r="B661"/>
-      <c r="C661"/>
-    </row>
-    <row r="662" spans="1:3">
-      <c r="A662"/>
-      <c r="B662"/>
-      <c r="C662"/>
-    </row>
-    <row r="663" spans="1:3">
-      <c r="A663"/>
-      <c r="B663"/>
-      <c r="C663"/>
-    </row>
-    <row r="664" spans="1:3">
-      <c r="A664"/>
-      <c r="B664"/>
-      <c r="C664"/>
-    </row>
-    <row r="665" spans="1:3">
-      <c r="A665"/>
-      <c r="B665"/>
-      <c r="C665"/>
-    </row>
-    <row r="666" spans="1:3">
-      <c r="A666"/>
-      <c r="B666"/>
-      <c r="C666"/>
-    </row>
-    <row r="667" spans="1:3">
-      <c r="A667"/>
-      <c r="B667"/>
-      <c r="C667"/>
-    </row>
-    <row r="668" spans="1:3">
-      <c r="A668"/>
-      <c r="B668"/>
-      <c r="C668"/>
-    </row>
-    <row r="669" spans="1:3">
-      <c r="A669"/>
-      <c r="B669"/>
-      <c r="C669"/>
-    </row>
-    <row r="670" spans="1:3">
-      <c r="A670"/>
-      <c r="B670"/>
-      <c r="C670"/>
-    </row>
-    <row r="671" spans="1:3">
-      <c r="A671"/>
-      <c r="B671"/>
-      <c r="C671"/>
-    </row>
-    <row r="672" spans="1:3">
-      <c r="A672"/>
-      <c r="B672"/>
-      <c r="C672"/>
-    </row>
-    <row r="673" spans="1:3">
-      <c r="A673"/>
-      <c r="B673"/>
-      <c r="C673"/>
-    </row>
-    <row r="674" spans="1:3">
-      <c r="A674"/>
-      <c r="B674"/>
-      <c r="C674"/>
-    </row>
-    <row r="675" spans="1:3">
-      <c r="A675"/>
-      <c r="B675"/>
-      <c r="C675"/>
-    </row>
-    <row r="676" spans="1:3">
-      <c r="A676"/>
-      <c r="B676"/>
-      <c r="C676"/>
-    </row>
-    <row r="677" spans="1:3">
-      <c r="A677"/>
-      <c r="B677"/>
-      <c r="C677"/>
-    </row>
-    <row r="678" spans="1:3">
-      <c r="A678"/>
-      <c r="B678"/>
-      <c r="C678"/>
-    </row>
-    <row r="679" spans="1:3">
-      <c r="A679"/>
-      <c r="B679"/>
-      <c r="C679"/>
-    </row>
-    <row r="680" spans="1:3">
-      <c r="A680"/>
-      <c r="B680"/>
-      <c r="C680"/>
-    </row>
-    <row r="681" spans="1:3">
-      <c r="A681"/>
-      <c r="B681"/>
-      <c r="C681"/>
-    </row>
-    <row r="682" spans="1:3">
-      <c r="A682"/>
-      <c r="B682"/>
-      <c r="C682"/>
-    </row>
-    <row r="683" spans="1:3">
-      <c r="A683"/>
-      <c r="B683"/>
-      <c r="C683"/>
-    </row>
-    <row r="684" spans="1:3">
-      <c r="A684"/>
-      <c r="B684"/>
-      <c r="C684"/>
-    </row>
-    <row r="685" spans="1:3">
-      <c r="A685"/>
-      <c r="B685"/>
-      <c r="C685"/>
-    </row>
-    <row r="686" spans="1:3">
-      <c r="A686"/>
-      <c r="B686"/>
-      <c r="C686"/>
-    </row>
-    <row r="687" spans="1:3">
-      <c r="A687"/>
-      <c r="B687"/>
-      <c r="C687"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C257" xr:uid="{F0F1E9AA-42FA-48CE-9C0D-6753CE8DE448}"/>
+  <autoFilter ref="A1:C177" xr:uid="{F0F1E9AA-42FA-48CE-9C0D-6753CE8DE448}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{282CD8DC-1CD6-4FEE-88BD-6500CF45AFA3}">
       <formula1>"#na, stage_1, stage_2, stage_3, stage_4, stage_5, stage_6, stage_7, stage_8, stage_9, stage_10, stage_11, stage_12, stage_13"</formula1>
